--- a/7.Registration details client search.xlsx
+++ b/7.Registration details client search.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="86">
   <si>
     <t>Product Name</t>
   </si>
@@ -31450,7 +31450,9 @@
       <c r="AB3" s="18"/>
     </row>
     <row r="4">
-      <c r="A4" s="30"/>
+      <c r="A4" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="B4" s="13" t="s">
         <v>31</v>
       </c>
@@ -31500,7 +31502,9 @@
       <c r="AB4" s="18"/>
     </row>
     <row r="5">
-      <c r="A5" s="30"/>
+      <c r="A5" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="B5" s="13" t="s">
         <v>38</v>
       </c>
@@ -31550,7 +31554,9 @@
       <c r="AB5" s="18"/>
     </row>
     <row r="6">
-      <c r="A6" s="30"/>
+      <c r="A6" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="B6" s="13" t="s">
         <v>41</v>
       </c>
@@ -31600,7 +31606,9 @@
       <c r="AB6" s="18"/>
     </row>
     <row r="7">
-      <c r="A7" s="3"/>
+      <c r="A7" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="B7" s="21" t="s">
         <v>78</v>
       </c>
@@ -31650,7 +31658,9 @@
       <c r="AB7" s="28"/>
     </row>
     <row r="8">
-      <c r="A8" s="30"/>
+      <c r="A8" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="B8" s="13" t="s">
         <v>66</v>
       </c>
